--- a/xa-liuchong.xlsx
+++ b/xa-liuchong.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="16">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="21">
   <si>
     <t>日期</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -85,6 +85,26 @@
   </si>
   <si>
     <t>要有计划的做事情`并综合实现许多效果</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>首页</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>顺利完成</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>一天</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>有些细节想不到</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>首页~特效什么的</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -491,7 +511,7 @@
   <dimension ref="A1:F6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G4" sqref="G4"/>
+      <selection activeCell="F3" sqref="F3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -548,11 +568,21 @@
       <c r="A3" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="B3" s="1"/>
-      <c r="C3" s="1"/>
-      <c r="D3" s="1"/>
-      <c r="E3" s="1"/>
-      <c r="F3" s="1"/>
+      <c r="B3" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="E3" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="F3" s="1" t="s">
+        <v>20</v>
+      </c>
     </row>
     <row r="4" spans="1:6" ht="30" customHeight="1">
       <c r="A4" s="1" t="s">

--- a/xa-liuchong.xlsx
+++ b/xa-liuchong.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="21">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="26">
   <si>
     <t>日期</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -105,6 +105,26 @@
   </si>
   <si>
     <t>首页~特效什么的</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>购物车的登录和注册和二级优化</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>顺利完成</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>一天</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>页面不完善，使其工作量加大</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>循序渐进，不能急，做好每一步</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -500,7 +520,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -511,13 +531,13 @@
   <dimension ref="A1:F6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F3" sqref="F3"/>
+      <selection activeCell="F4" sqref="F4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
   <cols>
     <col min="1" max="1" width="23.75" customWidth="1"/>
-    <col min="2" max="2" width="22.625" customWidth="1"/>
+    <col min="2" max="2" width="29.75" customWidth="1"/>
     <col min="3" max="3" width="22.75" customWidth="1"/>
     <col min="4" max="4" width="16.5" customWidth="1"/>
     <col min="5" max="5" width="41" customWidth="1"/>
@@ -588,11 +608,21 @@
       <c r="A4" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="B4" s="1"/>
-      <c r="C4" s="1"/>
-      <c r="D4" s="1"/>
-      <c r="E4" s="1"/>
-      <c r="F4" s="1"/>
+      <c r="B4" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="D4" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="E4" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="F4" s="1" t="s">
+        <v>25</v>
+      </c>
     </row>
     <row r="5" spans="1:6" ht="30" customHeight="1">
       <c r="A5" s="1" t="s">

--- a/xa-liuchong.xlsx
+++ b/xa-liuchong.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="31">
   <si>
     <t>日期</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -125,6 +125,26 @@
   </si>
   <si>
     <t>循序渐进，不能急，做好每一步</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>总体整合优化难</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>艰难在完成</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>一天</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>需在学习</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>团队合作很重要</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -520,7 +540,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -530,8 +550,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:F6"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F4" sqref="F4"/>
+    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="F5" sqref="F5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -628,11 +648,21 @@
       <c r="A5" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="B5" s="1"/>
-      <c r="C5" s="1"/>
-      <c r="D5" s="1"/>
-      <c r="E5" s="1"/>
-      <c r="F5" s="1"/>
+      <c r="B5" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="D5" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="E5" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="F5" s="1" t="s">
+        <v>30</v>
+      </c>
     </row>
     <row r="6" spans="1:6" ht="30" customHeight="1">
       <c r="A6" s="1" t="s">
